--- a/Modulo 1/planificacion.xlsx
+++ b/Modulo 1/planificacion.xlsx
@@ -64,9 +64,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,7 +372,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,7 +400,9 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="2">
+        <v>44582</v>
+      </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>

--- a/Modulo 1/planificacion.xlsx
+++ b/Modulo 1/planificacion.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CAMILA\#YoProgramo (2021-2022)\Proyecto\Modulo 1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9468D80B-6CAE-4EE5-9909-C7ACB5F1D236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Tarea</t>
   </si>
@@ -29,12 +35,15 @@
   </si>
   <si>
     <t>Armado HTML, CSS y Bootstrap (el. Elementales del proyecto)</t>
+  </si>
+  <si>
+    <t>Angular (pase de los archivos creados al framework)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -64,10 +73,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -77,6 +87,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -125,7 +138,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -158,9 +171,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -193,6 +223,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -368,21 +415,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="56.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -396,15 +443,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2">
         <v>44582</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="2">
+        <v>44595</v>
+      </c>
       <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <v>44599</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Modulo 1/planificacion.xlsx
+++ b/Modulo 1/planificacion.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CAMILA\#YoProgramo (2021-2022)\Proyecto\Modulo 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CAMILA\YoProgramo (2021-2022)\Proyecto\Modulo 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9468D80B-6CAE-4EE5-9909-C7ACB5F1D236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834D12CF-0C66-4A25-83F4-068F6866B688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Tarea</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Angular (pase de los archivos creados al framework)</t>
+  </si>
+  <si>
+    <t>Comienzo modulo BD (4)</t>
   </si>
 </sst>
 </file>
@@ -416,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -462,6 +465,17 @@
       <c r="B3" s="3">
         <v>44599</v>
       </c>
+      <c r="C3" s="3">
+        <v>44606</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3">
+        <v>44606</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
